--- a/backend/iaf.xlsx
+++ b/backend/iaf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15006,13 +15006,13 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H394" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I394" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395">
@@ -15228,13 +15228,13 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H400" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I400" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401">
@@ -15404,22 +15404,22 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G405" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="H405" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="I405" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406">
@@ -15431,29 +15431,29 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2773856</t>
+          <t>2773848</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Usf Barreto Aruja</t>
+          <t>Usf Mirante</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Augusto Furlan</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Nutricionista</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G406" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H406" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -15478,22 +15478,22 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Carla Santos Matos</t>
+          <t>Augusto Furlan</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Agente Comunitrio De Sade</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="G407" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H407" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -15515,22 +15515,22 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Carla Santos Matos</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Agente Comunitrio De Sade</t>
         </is>
       </c>
       <c r="G408" t="n">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="H408" t="n">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="I408" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -15552,22 +15552,22 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Freitas</t>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G409" t="n">
-        <v>27</v>
+        <v>473</v>
       </c>
       <c r="H409" t="n">
-        <v>27</v>
+        <v>432</v>
       </c>
       <c r="I409" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="410">
@@ -15589,22 +15589,22 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Maria Madalena Pereira</t>
+          <t>Jailson Da Silva Freitas</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Terapeuta Ocupacional</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G410" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I410" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411">
@@ -15626,22 +15626,22 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Mozaniel Daniel Duarte</t>
+          <t>Maria Madalena Pereira</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Terapeuta Ocupacional</t>
         </is>
       </c>
       <c r="G411" t="n">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="H411" t="n">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="I411" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -15663,22 +15663,22 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Paula Samara Rodrigues</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Fisioterapeuta Geral</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413">
@@ -15700,22 +15700,22 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Paula Samara Rodrigues</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Fisioterapeuta Geral</t>
         </is>
       </c>
       <c r="G413" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H413" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -15727,32 +15727,32 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>3044114</t>
+          <t>2773856</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>UBS Nova Aruja</t>
+          <t>Usf Barreto Aruja</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -15774,22 +15774,22 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Freitas</t>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -15811,22 +15811,22 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Maria Madalena Pereira</t>
+          <t>Jailson Da Silva Freitas</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Terapeuta Ocupacional</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -15848,22 +15848,22 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Maria Madalena Pereira</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Terapeuta Ocupacional</t>
         </is>
       </c>
       <c r="G417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -15875,17 +15875,17 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>7047088</t>
+          <t>3044114</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Usf Jardim Real</t>
+          <t>UBS Nova Aruja</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -15894,13 +15894,13 @@
         </is>
       </c>
       <c r="G418" t="n">
+        <v>22</v>
+      </c>
+      <c r="H418" t="n">
+        <v>21</v>
+      </c>
+      <c r="I418" t="n">
         <v>6</v>
-      </c>
-      <c r="H418" t="n">
-        <v>6</v>
-      </c>
-      <c r="I418" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -15912,17 +15912,17 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>7047088</t>
+          <t>3044114</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Usf Jardim Real</t>
+          <t>UBS Nova Aruja</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Freitas</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -15931,13 +15931,13 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H419" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I419" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -15959,22 +15959,22 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Maria Madalena Pereira</t>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Terapeuta Ocupacional</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G420" t="n">
+        <v>6</v>
+      </c>
+      <c r="H420" t="n">
+        <v>6</v>
+      </c>
+      <c r="I420" t="n">
         <v>3</v>
-      </c>
-      <c r="H420" t="n">
-        <v>3</v>
-      </c>
-      <c r="I420" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -15996,22 +15996,22 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Mozaniel Daniel Duarte</t>
+          <t>Jailson Da Silva Freitas</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G421" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H421" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I421" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422">
@@ -16033,19 +16033,19 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Paula Samara Rodrigues</t>
+          <t>Maria Madalena Pereira</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Fisioterapeuta Geral</t>
+          <t>Terapeuta Ocupacional</t>
         </is>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -16070,22 +16070,22 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G423" t="n">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="H423" t="n">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="I423" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424">
@@ -16097,32 +16097,32 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>9001808</t>
+          <t>7047088</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>UBS Fazenda Rincao de Aruja</t>
+          <t>Usf Jardim Real</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Paula Samara Rodrigues</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Fisioterapeuta Geral</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H424" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -16134,17 +16134,17 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>9001808</t>
+          <t>7047088</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>UBS Fazenda Rincao de Aruja</t>
+          <t>Usf Jardim Real</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Freitas</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -16159,7 +16159,7 @@
         <v>5</v>
       </c>
       <c r="I425" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -16181,22 +16181,22 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Maria Madalena Pereira</t>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Terapeuta Ocupacional</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I426" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Jailson Da Silva Freitas</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -16227,13 +16227,13 @@
         </is>
       </c>
       <c r="G427" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I427" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428">
@@ -16241,26 +16241,26 @@
         <v>2024</v>
       </c>
       <c r="B428" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2059304</t>
+          <t>9001808</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Usf Jardim Emilia</t>
+          <t>UBS Fazenda Rincao de Aruja</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Maria Madalena Pereira</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Terapeuta Ocupacional</t>
         </is>
       </c>
       <c r="G428" t="n">
@@ -16278,21 +16278,21 @@
         <v>2024</v>
       </c>
       <c r="B429" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2059304</t>
+          <t>9001808</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Usf Jardim Emilia</t>
+          <t>UBS Fazenda Rincao de Aruja</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Freitas</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -16301,13 +16301,13 @@
         </is>
       </c>
       <c r="G429" t="n">
+        <v>3</v>
+      </c>
+      <c r="H429" t="n">
+        <v>3</v>
+      </c>
+      <c r="I429" t="n">
         <v>2</v>
-      </c>
-      <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -16329,19 +16329,19 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Yara Moreira Lacerda</t>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Nutricionista</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G430" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H430" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -16356,32 +16356,32 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>2773228</t>
+          <t>2059304</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>UBS Vila Pilar</t>
+          <t>Usf Jardim Emilia</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Jailson Da Silva Freitas</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -16393,32 +16393,32 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2773228</t>
+          <t>2059304</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>UBS Vila Pilar</t>
+          <t>Usf Jardim Emilia</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Freitas</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G432" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I432" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433">
@@ -16430,29 +16430,29 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2773228</t>
+          <t>2059304</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>UBS Vila Pilar</t>
+          <t>Usf Jardim Emilia</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Yara Moreira Lacerda</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -16467,12 +16467,12 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2773848</t>
+          <t>2773228</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Usf Mirante</t>
+          <t>UBS Vila Pilar</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -16486,13 +16486,13 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I434" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -16504,12 +16504,12 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2773848</t>
+          <t>2773228</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Usf Mirante</t>
+          <t>UBS Vila Pilar</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -16523,13 +16523,13 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -16541,32 +16541,32 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2773848</t>
+          <t>2773228</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Usf Mirante</t>
+          <t>UBS Vila Pilar</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I436" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437">
@@ -16578,32 +16578,32 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2773856</t>
+          <t>2773228</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Usf Barreto Aruja</t>
+          <t>UBS Vila Pilar</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Augusto Furlan</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Nutricionista</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G437" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H437" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2773856</t>
+          <t>2773848</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Usf Barreto Aruja</t>
+          <t>Usf Mirante</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -16634,13 +16634,13 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="H438" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="I438" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -16652,12 +16652,12 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2773856</t>
+          <t>2773848</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Usf Barreto Aruja</t>
+          <t>Usf Mirante</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -16671,10 +16671,10 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H439" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I439" t="n">
         <v>3</v>
@@ -16689,32 +16689,32 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2773856</t>
+          <t>2773848</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Usf Barreto Aruja</t>
+          <t>Usf Mirante</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Mozaniel Daniel Duarte</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Profissional De Educao Fsica Na Sade</t>
         </is>
       </c>
       <c r="G440" t="n">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="I440" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441">
@@ -16726,32 +16726,32 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>3044114</t>
+          <t>2773848</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>UBS Nova Aruja</t>
+          <t>Usf Mirante</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+          <t>Thalita Garcia Inacio</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Profissional De Educao Fsica Na Sade</t>
+          <t>Psiclogo Clnico</t>
         </is>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I441" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -16763,29 +16763,29 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>7047088</t>
+          <t>2773856</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Usf Jardim Real</t>
+          <t>Usf Barreto Aruja</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Thalita Garcia Inacio</t>
+          <t>Augusto Furlan</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Psiclogo Clnico</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="G442" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -16800,12 +16800,12 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>9001808</t>
+          <t>2773856</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>UBS Fazenda Rincao de Aruja</t>
+          <t>Usf Barreto Aruja</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -16819,13 +16819,13 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>545</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>531</v>
       </c>
       <c r="I443" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="444">
@@ -16837,31 +16837,2029 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Jailson Da Silva Freitas</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>15</v>
+      </c>
+      <c r="H444" t="n">
+        <v>15</v>
+      </c>
+      <c r="I444" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B445" t="n">
+        <v>9</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>218</v>
+      </c>
+      <c r="H445" t="n">
+        <v>210</v>
+      </c>
+      <c r="I445" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B446" t="n">
+        <v>9</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>10</v>
+      </c>
+      <c r="H446" t="n">
+        <v>10</v>
+      </c>
+      <c r="I446" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B447" t="n">
+        <v>9</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Yara Moreira Lacerda</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>24</v>
+      </c>
+      <c r="H447" t="n">
+        <v>23</v>
+      </c>
+      <c r="I447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B448" t="n">
+        <v>9</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B449" t="n">
+        <v>9</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>27</v>
+      </c>
+      <c r="H449" t="n">
+        <v>27</v>
+      </c>
+      <c r="I449" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B450" t="n">
+        <v>9</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Yara Moreira Lacerda</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>18</v>
+      </c>
+      <c r="H450" t="n">
+        <v>18</v>
+      </c>
+      <c r="I450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B451" t="n">
+        <v>9</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>3</v>
+      </c>
+      <c r="H451" t="n">
+        <v>3</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B452" t="n">
+        <v>9</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>89</v>
+      </c>
+      <c r="H452" t="n">
+        <v>88</v>
+      </c>
+      <c r="I452" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B453" t="n">
+        <v>9</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>6</v>
+      </c>
+      <c r="H453" t="n">
+        <v>6</v>
+      </c>
+      <c r="I453" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B454" t="n">
+        <v>9</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
           <t>9001808</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
+      <c r="D454" t="inlineStr">
         <is>
           <t>UBS Fazenda Rincao de Aruja</t>
         </is>
       </c>
-      <c r="E444" t="inlineStr">
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>3</v>
+      </c>
+      <c r="H454" t="n">
+        <v>3</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B455" t="n">
+        <v>9</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>9001808</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>UBS Fazenda Rincao de Aruja</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
         <is>
           <t>Jailson Da Silva Freitas</t>
         </is>
       </c>
-      <c r="F444" t="inlineStr">
+      <c r="F455" t="inlineStr">
         <is>
           <t>Psiclogo Clnico</t>
         </is>
       </c>
-      <c r="G444" t="n">
-        <v>1</v>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
+      <c r="G455" t="n">
+        <v>1</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B456" t="n">
+        <v>9</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>9001808</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>UBS Fazenda Rincao de Aruja</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B457" t="n">
+        <v>10</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>55</v>
+      </c>
+      <c r="H457" t="n">
+        <v>50</v>
+      </c>
+      <c r="I457" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B458" t="n">
+        <v>10</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Nathalia De Jesus Monteiro Rosa</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>2</v>
+      </c>
+      <c r="H458" t="n">
+        <v>2</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B459" t="n">
+        <v>10</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>3</v>
+      </c>
+      <c r="H459" t="n">
+        <v>3</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B460" t="n">
+        <v>10</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Yara Moreira Lacerda</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>19</v>
+      </c>
+      <c r="H460" t="n">
+        <v>19</v>
+      </c>
+      <c r="I460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B461" t="n">
+        <v>10</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>2773228</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>UBS Vila Pilar</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>1</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B462" t="n">
+        <v>10</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>2773228</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>UBS Vila Pilar</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>108</v>
+      </c>
+      <c r="H462" t="n">
+        <v>102</v>
+      </c>
+      <c r="I462" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B463" t="n">
+        <v>10</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>2773228</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>UBS Vila Pilar</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Nathalia De Jesus Monteiro Rosa</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>2</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B464" t="n">
+        <v>10</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>2773228</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>UBS Vila Pilar</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>7</v>
+      </c>
+      <c r="H464" t="n">
+        <v>7</v>
+      </c>
+      <c r="I464" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B465" t="n">
+        <v>10</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>2773848</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Usf Mirante</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>8</v>
+      </c>
+      <c r="H465" t="n">
+        <v>8</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B466" t="n">
+        <v>10</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>2773848</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Usf Mirante</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>154</v>
+      </c>
+      <c r="H466" t="n">
+        <v>148</v>
+      </c>
+      <c r="I466" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B467" t="n">
+        <v>10</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>2773848</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Usf Mirante</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Nathalia De Jesus Monteiro Rosa</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>13</v>
+      </c>
+      <c r="H467" t="n">
+        <v>10</v>
+      </c>
+      <c r="I467" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B468" t="n">
+        <v>10</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>2773848</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Usf Mirante</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>12</v>
+      </c>
+      <c r="H468" t="n">
+        <v>12</v>
+      </c>
+      <c r="I468" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B469" t="n">
+        <v>10</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Augusto Furlan</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>5</v>
+      </c>
+      <c r="H469" t="n">
+        <v>5</v>
+      </c>
+      <c r="I469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B470" t="n">
+        <v>10</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>192</v>
+      </c>
+      <c r="H470" t="n">
+        <v>185</v>
+      </c>
+      <c r="I470" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B471" t="n">
+        <v>10</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>215</v>
+      </c>
+      <c r="H471" t="n">
+        <v>205</v>
+      </c>
+      <c r="I471" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B472" t="n">
+        <v>10</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Nathalia De Jesus Monteiro Rosa</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>8</v>
+      </c>
+      <c r="H472" t="n">
+        <v>8</v>
+      </c>
+      <c r="I472" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B473" t="n">
+        <v>10</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>21</v>
+      </c>
+      <c r="H473" t="n">
+        <v>21</v>
+      </c>
+      <c r="I473" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B474" t="n">
+        <v>10</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>24</v>
+      </c>
+      <c r="H474" t="n">
+        <v>23</v>
+      </c>
+      <c r="I474" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B475" t="n">
+        <v>10</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="n">
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B476" t="n">
+        <v>10</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Yara Moreira Lacerda</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>18</v>
+      </c>
+      <c r="H476" t="n">
+        <v>18</v>
+      </c>
+      <c r="I476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B477" t="n">
+        <v>10</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>2</v>
+      </c>
+      <c r="H477" t="n">
+        <v>2</v>
+      </c>
+      <c r="I477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B478" t="n">
+        <v>10</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Mozaniel Daniel Duarte</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>107</v>
+      </c>
+      <c r="H478" t="n">
+        <v>97</v>
+      </c>
+      <c r="I478" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B479" t="n">
+        <v>10</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Nathalia De Jesus Monteiro Rosa</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>3</v>
+      </c>
+      <c r="H479" t="n">
+        <v>3</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B480" t="n">
+        <v>10</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>3</v>
+      </c>
+      <c r="H480" t="n">
+        <v>3</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B481" t="n">
+        <v>10</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>9001808</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>UBS Fazenda Rincao de Aruja</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>3</v>
+      </c>
+      <c r="H481" t="n">
+        <v>3</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B482" t="n">
+        <v>10</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>9001808</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>UBS Fazenda Rincao de Aruja</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Nathalia De Jesus Monteiro Rosa</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>5</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B483" t="n">
+        <v>10</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>9001808</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>UBS Fazenda Rincao de Aruja</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>1</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B484" t="n">
+        <v>11</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B485" t="n">
+        <v>11</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>2</v>
+      </c>
+      <c r="H485" t="n">
+        <v>2</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B486" t="n">
+        <v>11</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>2059304</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Usf Jardim Emilia</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Yara Moreira Lacerda</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>19</v>
+      </c>
+      <c r="H486" t="n">
+        <v>18</v>
+      </c>
+      <c r="I486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B487" t="n">
+        <v>11</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>2773228</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>UBS Vila Pilar</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>7</v>
+      </c>
+      <c r="H487" t="n">
+        <v>7</v>
+      </c>
+      <c r="I487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B488" t="n">
+        <v>11</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>2773228</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>UBS Vila Pilar</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>14</v>
+      </c>
+      <c r="H488" t="n">
+        <v>14</v>
+      </c>
+      <c r="I488" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B489" t="n">
+        <v>11</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>2773848</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Usf Mirante</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>3</v>
+      </c>
+      <c r="H489" t="n">
+        <v>3</v>
+      </c>
+      <c r="I489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B490" t="n">
+        <v>11</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>2773848</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Usf Mirante</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G490" t="n">
+        <v>8</v>
+      </c>
+      <c r="H490" t="n">
+        <v>8</v>
+      </c>
+      <c r="I490" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B491" t="n">
+        <v>11</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Augusto Furlan</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>9</v>
+      </c>
+      <c r="H491" t="n">
+        <v>9</v>
+      </c>
+      <c r="I491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B492" t="n">
+        <v>11</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>225</v>
+      </c>
+      <c r="H492" t="n">
+        <v>218</v>
+      </c>
+      <c r="I492" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B493" t="n">
+        <v>11</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Mariana Aparecida Ferreira Dos Santos</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Agente Comunitrio De Sade</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>33</v>
+      </c>
+      <c r="H493" t="n">
+        <v>21</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B494" t="n">
+        <v>11</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2773856</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Usf Barreto Aruja</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>13</v>
+      </c>
+      <c r="H494" t="n">
+        <v>13</v>
+      </c>
+      <c r="I494" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B495" t="n">
+        <v>11</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>3044114</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>UBS Nova Aruja</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B496" t="n">
+        <v>11</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>3</v>
+      </c>
+      <c r="H496" t="n">
+        <v>3</v>
+      </c>
+      <c r="I496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B497" t="n">
+        <v>11</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>7047088</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Usf Jardim Real</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Thalita Garcia Inacio</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Psiclogo Clnico</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>3</v>
+      </c>
+      <c r="H497" t="n">
+        <v>3</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B498" t="n">
+        <v>11</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>9001808</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>UBS Fazenda Rincao de Aruja</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Francisca Marcia Ribeiro Do Nascimento</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Profissional De Educao Fsica Na Sade</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
         <v>1</v>
       </c>
     </row>
